--- a/device_id.xlsx
+++ b/device_id.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\E-motion chair\E-motion chair v0.3.0\ontwikkeling\E-Motion-chair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A2971E-0672-4B96-87A5-86E655452E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC040E1F-8A91-42AB-85A5-8A2BAA39C0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="980" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="devices" sheetId="1" r:id="rId1"/>
+    <sheet name="EM-1521042" sheetId="5" r:id="rId2"/>
+    <sheet name="EM-1521142" sheetId="3" r:id="rId3"/>
+    <sheet name="EM-1521152" sheetId="4" r:id="rId4"/>
+    <sheet name="EM-1521400" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t xml:space="preserve">Nummer op bat </t>
   </si>
@@ -33,9 +46,6 @@
     <t>device naam op mDNS</t>
   </si>
   <si>
-    <t>EM-1521400</t>
-  </si>
-  <si>
     <t>EM-1521152</t>
   </si>
   <si>
@@ -46,13 +56,174 @@
   </si>
   <si>
     <t>Afkorting</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indufiduele sensor check </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zit check </t>
+  </si>
+  <si>
+    <t>duurtest (&gt;2 uur)</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>gemiddelde</t>
+  </si>
+  <si>
+    <t>verschil</t>
+  </si>
+  <si>
+    <t>stdev.s</t>
+  </si>
+  <si>
+    <t>gemiddelde verschil</t>
+  </si>
+  <si>
+    <t>stdev.s verschil</t>
+  </si>
+  <si>
+    <t>multi sensor test</t>
+  </si>
+  <si>
+    <t>3225,2745,2381,4640,4741,3920,3385,485,3237,.</t>
+  </si>
+  <si>
+    <t>FX and FY 12, 12, .</t>
+  </si>
+  <si>
+    <t>3305,2580,2160,4752,4624,3920,3493,480,3260,.</t>
+  </si>
+  <si>
+    <t>3236,1652,756,5056,4328,3388,3724,525,3012,.</t>
+  </si>
+  <si>
+    <t>FX and FY 10, 13, .</t>
+  </si>
+  <si>
+    <t>3285,1876,953,5013,4400,3469,3689,533,3016,.</t>
+  </si>
+  <si>
+    <t>3288,1925,980,5016,4405,3489,3672,512,3024,.</t>
+  </si>
+  <si>
+    <t>3332,1993,1016,5032,4425,3513,3697,513,3057,.</t>
+  </si>
+  <si>
+    <t>3385,2101,1021,5033,4420,3509,3680,492,3044,.</t>
+  </si>
+  <si>
+    <t>3381,2117,1129,5021,4425,3524,3657,525,3053,.</t>
+  </si>
+  <si>
+    <t>FX and FY 11, 13, .</t>
+  </si>
+  <si>
+    <t>3389,2132,1157,5024,4445,3549,3684,512,3049,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meting met kussen met iemand van 75 kg </t>
+  </si>
+  <si>
+    <t>EM-1521142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nee, alleen als verbonden is met computer, anders sporatisch gedrag </t>
+  </si>
+  <si>
+    <t>notitie: met een stukje hout van 28.8 x 28.8 aan laptop aan gesloten</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range </t>
+  </si>
+  <si>
+    <t>Netwerk check (get time en login via mDNS)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laatste x update gehad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">duurtest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start </t>
+  </si>
+  <si>
+    <t>eind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laatste bestand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">klopt niet. Hij heeft natuurlijk niks opgeslagen omdat er geen gewicht op staat </t>
+  </si>
+  <si>
+    <t>EM-1521042</t>
+  </si>
+  <si>
+    <t>EM-1521400 (vervangen door EM-1521042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lange termijn test </t>
+  </si>
+  <si>
+    <t>komt overeen met wanneer er ongeveer is begonne n</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>frequentie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per minuut </t>
+  </si>
+  <si>
+    <t>minuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uren </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,12 +232,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,10 +254,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -89,8 +267,26 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -104,6 +300,1800 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2790.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4086.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4768.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$25:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1774.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4522.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>280.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1088.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2946.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4284.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5176.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2826.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3048.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>536.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3856.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4684.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EM-1521400'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EM-1521400'!$D$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1134.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2634.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D6AD-4244-9B81-B81AD88575A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1990283919"/>
+        <c:axId val="1992352623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1990283919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1992352623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1992352623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990283919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>564865</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1363042-2819-483C-BCE9-6B8ED3048E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5486400"/>
+          <a:ext cx="7361905" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155312</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0AF712-2709-483D-9F89-796915B185E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="3683000"/>
+          <a:ext cx="7178412" cy="2340317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>520805</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>189432</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9904328B-0F41-4DF0-A850-330CC84FFB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,36 +2359,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="1"/>
+    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -406,41 +2421,2665 @@
         <v>176149890195324</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>272911208406908</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>160756727406460</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>232324718460</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>152</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>270707890184060</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>142</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52BEE75-0815-45D3-AF06-324863A97F72}">
+  <dimension ref="B2:L17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>489</v>
+      </c>
+      <c r="E4">
+        <v>1289</v>
+      </c>
+      <c r="G4">
+        <v>2625</v>
+      </c>
+      <c r="I4">
+        <v>3917</v>
+      </c>
+      <c r="K4">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>328</v>
+      </c>
+      <c r="E5">
+        <v>928</v>
+      </c>
+      <c r="G5">
+        <v>2429</v>
+      </c>
+      <c r="I5">
+        <v>3705</v>
+      </c>
+      <c r="K5">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>553</v>
+      </c>
+      <c r="E6">
+        <v>1208</v>
+      </c>
+      <c r="G6">
+        <v>2829</v>
+      </c>
+      <c r="I6">
+        <v>4205</v>
+      </c>
+      <c r="K6">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>141</v>
+      </c>
+      <c r="E7">
+        <v>632</v>
+      </c>
+      <c r="G7">
+        <v>2181</v>
+      </c>
+      <c r="I7">
+        <v>3808</v>
+      </c>
+      <c r="K7">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>333</v>
+      </c>
+      <c r="E8">
+        <v>1189</v>
+      </c>
+      <c r="G8">
+        <v>2633</v>
+      </c>
+      <c r="I8">
+        <v>3805</v>
+      </c>
+      <c r="K8">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>801</v>
+      </c>
+      <c r="E9">
+        <v>1716</v>
+      </c>
+      <c r="G9">
+        <v>3052</v>
+      </c>
+      <c r="I9">
+        <v>4264</v>
+      </c>
+      <c r="K9">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>501</v>
+      </c>
+      <c r="E10">
+        <v>1265</v>
+      </c>
+      <c r="G10">
+        <v>2837</v>
+      </c>
+      <c r="I10">
+        <v>3704</v>
+      </c>
+      <c r="K10">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>549</v>
+      </c>
+      <c r="E11">
+        <v>1425</v>
+      </c>
+      <c r="G11">
+        <v>2848</v>
+      </c>
+      <c r="I11">
+        <v>3948</v>
+      </c>
+      <c r="K11">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>345</v>
+      </c>
+      <c r="E12">
+        <v>1021</v>
+      </c>
+      <c r="G12">
+        <v>2737</v>
+      </c>
+      <c r="I12">
+        <v>3977</v>
+      </c>
+      <c r="K12">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3">
+        <f>_xlfn.STDEV.S(C4:C12)</f>
+        <v>188.01625225259417</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f t="shared" ref="D14:L14" si="0">_xlfn.STDEV.S(D4:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>307.42252863300536</v>
+      </c>
+      <c r="F14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>258.27649912448481</v>
+      </c>
+      <c r="H14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>200.60561086647382</v>
+      </c>
+      <c r="J14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>173.9317394842011</v>
+      </c>
+      <c r="L14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <f>MIN(C4:C12)</f>
+        <v>141</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:L15" si="1">MIN(D4:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2181</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3704</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>4597</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <f>MAX(C4:C12)</f>
+        <v>801</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:L16" si="2">MAX(D4:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1716</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>3052</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>4264</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>5140</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <f>ABS(C15-C16)</f>
+        <v>660</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:L17" si="3">ABS(D15-D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>1084</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>871</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08E70E-6485-4B4B-B27A-0ADF0208C1DE}">
+  <dimension ref="B2:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>376</v>
+      </c>
+      <c r="E4">
+        <v>1136</v>
+      </c>
+      <c r="G4">
+        <v>2909</v>
+      </c>
+      <c r="I4">
+        <v>4224</v>
+      </c>
+      <c r="K4">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>149</v>
+      </c>
+      <c r="E5">
+        <v>612</v>
+      </c>
+      <c r="G5">
+        <v>2441</v>
+      </c>
+      <c r="I5">
+        <v>3876</v>
+      </c>
+      <c r="K5">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>277</v>
+      </c>
+      <c r="E6">
+        <v>257</v>
+      </c>
+      <c r="F6">
+        <v>569</v>
+      </c>
+      <c r="G6">
+        <v>1816</v>
+      </c>
+      <c r="H6">
+        <v>1885</v>
+      </c>
+      <c r="I6">
+        <v>3564</v>
+      </c>
+      <c r="J6">
+        <v>3525</v>
+      </c>
+      <c r="K6">
+        <v>5005</v>
+      </c>
+      <c r="L6">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>616</v>
+      </c>
+      <c r="E7">
+        <v>1308</v>
+      </c>
+      <c r="G7">
+        <v>2649</v>
+      </c>
+      <c r="I7">
+        <v>3748</v>
+      </c>
+      <c r="K7">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>397</v>
+      </c>
+      <c r="E8">
+        <v>768</v>
+      </c>
+      <c r="G8">
+        <v>1653</v>
+      </c>
+      <c r="I8">
+        <v>2596</v>
+      </c>
+      <c r="K8">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>137</v>
+      </c>
+      <c r="E9">
+        <v>773</v>
+      </c>
+      <c r="G9">
+        <v>2588</v>
+      </c>
+      <c r="I9">
+        <v>4004</v>
+      </c>
+      <c r="K9">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>405</v>
+      </c>
+      <c r="E10">
+        <v>1225</v>
+      </c>
+      <c r="G10">
+        <v>2825</v>
+      </c>
+      <c r="I10">
+        <v>4301</v>
+      </c>
+      <c r="K10">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>684</v>
+      </c>
+      <c r="E11">
+        <v>1773</v>
+      </c>
+      <c r="G11">
+        <v>2612</v>
+      </c>
+      <c r="I11">
+        <v>4300</v>
+      </c>
+      <c r="K11">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>345</v>
+      </c>
+      <c r="E12">
+        <v>1016</v>
+      </c>
+      <c r="G12">
+        <v>2856</v>
+      </c>
+      <c r="I12">
+        <v>4056</v>
+      </c>
+      <c r="K12">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3">
+        <f>_xlfn.STDEV.S(C4:C12)</f>
+        <v>218.95325477776709</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f t="shared" ref="D14:L14" si="0">_xlfn.STDEV.S(D4:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>442.68781324992449</v>
+      </c>
+      <c r="F14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>451.15733890123522</v>
+      </c>
+      <c r="H14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>533.53548252305768</v>
+      </c>
+      <c r="J14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>497.00665097271195</v>
+      </c>
+      <c r="L14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <f>MIN(C4:C12)</f>
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:L15" si="1">MIN(D4:D12)</f>
+        <v>277</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>569</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1653</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1885</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>2596</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3525</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>3652</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <f>MAX(C4:C12)</f>
+        <v>684</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:L16" si="2">MAX(D4:D12)</f>
+        <v>277</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1773</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>569</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2909</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1885</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>4301</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>3525</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>5265</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <f>ABS(C15-C16)</f>
+        <v>665</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:L17" si="3">ABS(D15-D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="3"/>
+        <v>1516</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="3"/>
+        <v>1256</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="3"/>
+        <v>1705</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="3"/>
+        <v>1613</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1661617712</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.76981481481481484</v>
+      </c>
+      <c r="E22" s="11">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>1661650729</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.1519560185185185</v>
+      </c>
+      <c r="E23" s="11">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="12">
+        <f>C27/60</f>
+        <v>3.8166666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D7530-4C62-4FDA-BEE1-FF52241A5947}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>108</v>
+      </c>
+      <c r="J4">
+        <v>453</v>
+      </c>
+      <c r="L4">
+        <v>2077</v>
+      </c>
+      <c r="M4">
+        <v>2193</v>
+      </c>
+      <c r="N4">
+        <v>3245</v>
+      </c>
+      <c r="P4" s="7">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>661</v>
+      </c>
+      <c r="L5">
+        <v>2317</v>
+      </c>
+      <c r="M5">
+        <v>2565</v>
+      </c>
+      <c r="N5">
+        <v>3880</v>
+      </c>
+      <c r="P5">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>113</v>
+      </c>
+      <c r="J6">
+        <v>813</v>
+      </c>
+      <c r="L6">
+        <v>2468</v>
+      </c>
+      <c r="M6">
+        <v>2644</v>
+      </c>
+      <c r="N6">
+        <v>4065</v>
+      </c>
+      <c r="P6">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>317</v>
+      </c>
+      <c r="J7">
+        <v>1069</v>
+      </c>
+      <c r="L7">
+        <v>2625</v>
+      </c>
+      <c r="M7">
+        <v>2532</v>
+      </c>
+      <c r="N7">
+        <v>3900</v>
+      </c>
+      <c r="P7">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>268</v>
+      </c>
+      <c r="J8">
+        <v>969</v>
+      </c>
+      <c r="L8">
+        <v>2661</v>
+      </c>
+      <c r="M8">
+        <v>2557</v>
+      </c>
+      <c r="N8">
+        <v>3952</v>
+      </c>
+      <c r="P8">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>484</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1493</v>
+      </c>
+      <c r="L9">
+        <v>3065</v>
+      </c>
+      <c r="M9">
+        <v>2797</v>
+      </c>
+      <c r="N9">
+        <v>3941</v>
+      </c>
+      <c r="P9">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G10" s="4">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>221</v>
+      </c>
+      <c r="J10">
+        <v>836</v>
+      </c>
+      <c r="L10">
+        <v>2085</v>
+      </c>
+      <c r="M10">
+        <v>2324</v>
+      </c>
+      <c r="N10">
+        <v>3640</v>
+      </c>
+      <c r="P10">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="J11" s="7">
+        <v>293</v>
+      </c>
+      <c r="L11">
+        <v>1797</v>
+      </c>
+      <c r="M11">
+        <v>2037</v>
+      </c>
+      <c r="N11">
+        <v>3573</v>
+      </c>
+      <c r="P11">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G12" s="4">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>241</v>
+      </c>
+      <c r="J12">
+        <v>965</v>
+      </c>
+      <c r="L12">
+        <v>2996</v>
+      </c>
+      <c r="M12">
+        <v>3205</v>
+      </c>
+      <c r="N12">
+        <v>4300</v>
+      </c>
+      <c r="P12">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3">
+        <f>AVERAGE(H3:H12)</f>
+        <v>180.91</v>
+      </c>
+      <c r="I14" s="3" t="e">
+        <f t="shared" ref="I14:P14" si="0">AVERAGE(I3:I12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>755.22</v>
+      </c>
+      <c r="K14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>2209.15</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>2539.3333333333335</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>3449.7</v>
+      </c>
+      <c r="O14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="0"/>
+        <v>4371.3999999999996</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <f>MIN(H4:H12)</f>
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:Q15" si="1">MIN(I4:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1797</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>3245</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>3793</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <f>MAX(H4:H12)</f>
+        <v>484</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:Q16" si="2">MAX(I4:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>1493</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>3065</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>3205</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>5240</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:Q18" si="3">ABS(H15-H16)</f>
+        <v>458</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1268</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>1168</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1055</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>1447</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8063B206-5FA7-4448-8EF9-9594290099CF}">
+  <dimension ref="C2:M75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>453</v>
+      </c>
+      <c r="E4">
+        <v>421</v>
+      </c>
+      <c r="F4">
+        <v>1253</v>
+      </c>
+      <c r="G4">
+        <v>1073</v>
+      </c>
+      <c r="H4">
+        <v>2733</v>
+      </c>
+      <c r="I4">
+        <v>2848</v>
+      </c>
+      <c r="J4">
+        <v>4260</v>
+      </c>
+      <c r="K4">
+        <v>3913</v>
+      </c>
+      <c r="L4">
+        <v>4973</v>
+      </c>
+      <c r="M4">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <v>185</v>
+      </c>
+      <c r="F5">
+        <v>693</v>
+      </c>
+      <c r="G5" s="7">
+        <v>645</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2105</v>
+      </c>
+      <c r="I5">
+        <v>2413</v>
+      </c>
+      <c r="J5">
+        <v>3836</v>
+      </c>
+      <c r="K5">
+        <v>3992</v>
+      </c>
+      <c r="L5">
+        <v>4881</v>
+      </c>
+      <c r="M5">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>817</v>
+      </c>
+      <c r="E6">
+        <v>457</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1973</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1576</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3536</v>
+      </c>
+      <c r="I6">
+        <v>3100</v>
+      </c>
+      <c r="J6">
+        <v>4633</v>
+      </c>
+      <c r="K6">
+        <v>4412</v>
+      </c>
+      <c r="L6">
+        <v>4948</v>
+      </c>
+      <c r="M6">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>528</v>
+      </c>
+      <c r="E7">
+        <v>164</v>
+      </c>
+      <c r="F7">
+        <v>1252</v>
+      </c>
+      <c r="G7">
+        <v>848</v>
+      </c>
+      <c r="H7">
+        <v>2813</v>
+      </c>
+      <c r="I7">
+        <v>2321</v>
+      </c>
+      <c r="J7">
+        <v>4280</v>
+      </c>
+      <c r="K7">
+        <v>4136</v>
+      </c>
+      <c r="L7">
+        <v>5161</v>
+      </c>
+      <c r="M7">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>333</v>
+      </c>
+      <c r="E8">
+        <v>228</v>
+      </c>
+      <c r="F8">
+        <v>1225</v>
+      </c>
+      <c r="G8">
+        <v>952</v>
+      </c>
+      <c r="H8">
+        <v>3053</v>
+      </c>
+      <c r="I8">
+        <v>2840</v>
+      </c>
+      <c r="J8">
+        <v>4444</v>
+      </c>
+      <c r="K8">
+        <v>4125</v>
+      </c>
+      <c r="L8">
+        <v>5240</v>
+      </c>
+      <c r="M8">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>788</v>
+      </c>
+      <c r="E9">
+        <v>388</v>
+      </c>
+      <c r="F9">
+        <v>1629</v>
+      </c>
+      <c r="G9">
+        <v>977</v>
+      </c>
+      <c r="H9">
+        <v>3141</v>
+      </c>
+      <c r="I9">
+        <v>2512</v>
+      </c>
+      <c r="J9">
+        <v>4405</v>
+      </c>
+      <c r="K9">
+        <v>4125</v>
+      </c>
+      <c r="L9">
+        <v>5217</v>
+      </c>
+      <c r="M9">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>472</v>
+      </c>
+      <c r="E10">
+        <v>404</v>
+      </c>
+      <c r="F10">
+        <v>1340</v>
+      </c>
+      <c r="G10">
+        <v>956</v>
+      </c>
+      <c r="H10">
+        <v>3141</v>
+      </c>
+      <c r="I10">
+        <v>2956</v>
+      </c>
+      <c r="J10">
+        <v>4149</v>
+      </c>
+      <c r="K10">
+        <v>3977</v>
+      </c>
+      <c r="L10">
+        <v>4217</v>
+      </c>
+      <c r="M10">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>684</v>
+      </c>
+      <c r="E11">
+        <v>389</v>
+      </c>
+      <c r="F11">
+        <v>1397</v>
+      </c>
+      <c r="G11">
+        <v>1089</v>
+      </c>
+      <c r="H11">
+        <v>2704</v>
+      </c>
+      <c r="I11">
+        <v>2820</v>
+      </c>
+      <c r="J11">
+        <v>3844</v>
+      </c>
+      <c r="K11">
+        <v>3869</v>
+      </c>
+      <c r="L11">
+        <v>4688</v>
+      </c>
+      <c r="M11">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>633</v>
+      </c>
+      <c r="E12">
+        <v>281</v>
+      </c>
+      <c r="F12">
+        <v>1260</v>
+      </c>
+      <c r="G12">
+        <v>1009</v>
+      </c>
+      <c r="H12">
+        <v>2548</v>
+      </c>
+      <c r="I12">
+        <v>2721</v>
+      </c>
+      <c r="J12">
+        <v>3916</v>
+      </c>
+      <c r="K12">
+        <v>4044</v>
+      </c>
+      <c r="L12">
+        <v>4673</v>
+      </c>
+      <c r="M12">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:M14" si="0">MIN(D4:D12)</f>
+        <v>141</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2105</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2321</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3836</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>3869</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>4217</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:M15" si="1">MAX(D4:D12)</f>
+        <v>817</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1973</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1576</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3536</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>4633</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>4412</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>5240</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <f>ABS(D14-D15)</f>
+        <v>676</v>
+      </c>
+      <c r="E16">
+        <f>ABS(E14-E15)</f>
+        <v>293</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16:M16" si="2">ABS(F14-F15)</f>
+        <v>1280</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="2"/>
+        <v>1431</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>779</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>797</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>1023</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:D31" si="3">AVERAGE(D4:E4)</f>
+        <v>437</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ref="E23:E31" si="4">AVERAGE(F4:G4)</f>
+        <v>1163</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ref="F23:F31" si="5">AVERAGE(H4:I4)</f>
+        <v>2790.5</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23:G31" si="6">AVERAGE(J4:K4)</f>
+        <v>4086.5</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" ref="H23:H31" si="7">AVERAGE(L4:M4)</f>
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="4"/>
+        <v>669</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="5"/>
+        <v>2259</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="6"/>
+        <v>3914</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="7"/>
+        <v>4768.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="3"/>
+        <v>637</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="4"/>
+        <v>1774.5</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="5"/>
+        <v>3318</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="6"/>
+        <v>4522.5</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="7"/>
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="3"/>
+        <v>346</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="5"/>
+        <v>2567</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="6"/>
+        <v>4208</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="7"/>
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="3"/>
+        <v>280.5</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="4"/>
+        <v>1088.5</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="5"/>
+        <v>2946.5</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="6"/>
+        <v>4284.5</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="7"/>
+        <v>5176.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="4">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="3"/>
+        <v>588</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="4"/>
+        <v>1303</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="5"/>
+        <v>2826.5</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="6"/>
+        <v>4265</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="7"/>
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="4">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="4"/>
+        <v>1148</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="5"/>
+        <v>3048.5</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="6"/>
+        <v>4063</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="7"/>
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="4">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="3"/>
+        <v>536.5</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="4"/>
+        <v>1243</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="5"/>
+        <v>2762</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="6"/>
+        <v>3856.5</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="7"/>
+        <v>4684.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="4">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="4"/>
+        <v>1134.5</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="5"/>
+        <v>2634.5</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="6"/>
+        <v>3980</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="7"/>
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3">
+        <f>AVERAGE(D23:D31)</f>
+        <v>431.44444444444446</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ref="E33:H33" si="8">AVERAGE(E23:E31)</f>
+        <v>1174.8333333333333</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="8"/>
+        <v>2794.7222222222222</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="8"/>
+        <v>4131.1111111111113</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="8"/>
+        <v>4864.0555555555557</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
+        <f>_xlfn.STDEV.S(D23:D31)</f>
+        <v>150.28045540847214</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ref="E34:H34" si="9">_xlfn.STDEV.S(E23:E31)</f>
+        <v>287.67701072557048</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="9"/>
+        <v>301.63814321873161</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="9"/>
+        <v>209.92971707481317</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="9"/>
+        <v>298.42623088089584</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>0.2</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ref="D37:D45" si="10">ABS(D4-E4)</f>
+        <v>32</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" ref="E37:E45" si="11">ABS(F4-G4)</f>
+        <v>180</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" ref="F37:F45" si="12">ABS(H4-I4)</f>
+        <v>115</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" ref="G37:G45" si="13">ABS(J4-K4)</f>
+        <v>347</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" ref="H37:H45" si="14">ABS(L4-M4)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="12"/>
+        <v>308</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="13"/>
+        <v>156</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="14"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="11"/>
+        <v>397</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="12"/>
+        <v>436</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="13"/>
+        <v>221</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="14"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="10"/>
+        <v>364</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="11"/>
+        <v>404</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="12"/>
+        <v>492</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="13"/>
+        <v>144</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="14"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="4">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="11"/>
+        <v>273</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="12"/>
+        <v>213</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="13"/>
+        <v>319</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="14"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="4">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="11"/>
+        <v>652</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="12"/>
+        <v>629</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="13"/>
+        <v>280</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="4">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="12"/>
+        <v>185</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="13"/>
+        <v>172</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="4">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="10"/>
+        <v>295</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="11"/>
+        <v>308</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="12"/>
+        <v>116</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="4">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="10"/>
+        <v>352</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="11"/>
+        <v>251</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="14"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3">
+        <f>AVERAGE(D37:D45)</f>
+        <v>224.44444444444446</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ref="E47:H47" si="15">AVERAGE(E37:E45)</f>
+        <v>321.88888888888891</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="15"/>
+        <v>296.33333333333331</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="15"/>
+        <v>199.11111111111111</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="15"/>
+        <v>182.55555555555554</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3">
+        <f>_xlfn.STDEV.S(D37:D45)</f>
+        <v>157.42308527588253</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" ref="E48:H48" si="16">_xlfn.STDEV.S(E37:E45)</f>
+        <v>168.8086523585539</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="16"/>
+        <v>183.21708435623574</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="16"/>
+        <v>102.6333820504377</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="16"/>
+        <v>120.2831150984118</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0.69027777777777777</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1661521950</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/device_id.xlsx
+++ b/device_id.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\E-motion chair\E-motion chair v0.3.0\ontwikkeling\E-Motion-chair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC040E1F-8A91-42AB-85A5-8A2BAA39C0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F912881-802C-471A-8377-862872C3C815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="980" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="1" r:id="rId1"/>
-    <sheet name="EM-1521042" sheetId="5" r:id="rId2"/>
-    <sheet name="EM-1521142" sheetId="3" r:id="rId3"/>
-    <sheet name="EM-1521152" sheetId="4" r:id="rId4"/>
-    <sheet name="EM-1521400" sheetId="2" r:id="rId5"/>
+    <sheet name="EM-1521056" sheetId="6" r:id="rId2"/>
+    <sheet name="EM-1521042" sheetId="5" r:id="rId3"/>
+    <sheet name="EM-1521142" sheetId="3" r:id="rId4"/>
+    <sheet name="EM-1521152" sheetId="4" r:id="rId5"/>
+    <sheet name="EM-1521400" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t xml:space="preserve">Nummer op bat </t>
   </si>
@@ -201,6 +202,9 @@
   <si>
     <t xml:space="preserve">uren </t>
   </si>
+  <si>
+    <t>yes</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +287,15 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
@@ -1961,6 +1974,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB47342-F012-4121-8760-8B39EB729B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="3585882"/>
+          <a:ext cx="6800000" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8686</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22027396-111C-411E-BB0C-32C4B04EEEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3840480"/>
+          <a:ext cx="6714286" cy="2523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -2006,7 +2117,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2055,7 +2166,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2361,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2426,30 +2537,45 @@
       <c r="E3" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>272911208406908</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <v>400</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2478,6 +2604,9 @@
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -2504,6 +2633,9 @@
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -2528,6 +2660,9 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2537,11 +2672,414 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4944568-8180-434E-8DCB-DD967DA9B2F4}">
+  <dimension ref="B3:L18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>464</v>
+      </c>
+      <c r="E5">
+        <v>920</v>
+      </c>
+      <c r="G5">
+        <v>3181</v>
+      </c>
+      <c r="I5">
+        <v>4437</v>
+      </c>
+      <c r="K5">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>272</v>
+      </c>
+      <c r="E6">
+        <v>925</v>
+      </c>
+      <c r="G6">
+        <v>2932</v>
+      </c>
+      <c r="I6">
+        <v>4469</v>
+      </c>
+      <c r="K6">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>489</v>
+      </c>
+      <c r="E7">
+        <v>1232</v>
+      </c>
+      <c r="G7">
+        <v>3217</v>
+      </c>
+      <c r="I7">
+        <v>4621</v>
+      </c>
+      <c r="K7">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>229</v>
+      </c>
+      <c r="E8">
+        <v>1085</v>
+      </c>
+      <c r="G8">
+        <v>2720</v>
+      </c>
+      <c r="I8">
+        <v>4045</v>
+      </c>
+      <c r="K8">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>293</v>
+      </c>
+      <c r="E9">
+        <v>869</v>
+      </c>
+      <c r="G9">
+        <v>2465</v>
+      </c>
+      <c r="I9">
+        <v>3917</v>
+      </c>
+      <c r="K9">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>561</v>
+      </c>
+      <c r="E10">
+        <v>1113</v>
+      </c>
+      <c r="G10">
+        <v>2552</v>
+      </c>
+      <c r="I10">
+        <v>4120</v>
+      </c>
+      <c r="K10">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>216</v>
+      </c>
+      <c r="E11">
+        <v>753</v>
+      </c>
+      <c r="G11">
+        <v>2469</v>
+      </c>
+      <c r="I11">
+        <v>4133</v>
+      </c>
+      <c r="K11">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>692</v>
+      </c>
+      <c r="E12">
+        <v>1260</v>
+      </c>
+      <c r="G12">
+        <v>2760</v>
+      </c>
+      <c r="I12">
+        <v>4345</v>
+      </c>
+      <c r="K12">
+        <v>4913</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>344</v>
+      </c>
+      <c r="E13">
+        <v>1144</v>
+      </c>
+      <c r="G13">
+        <v>2753</v>
+      </c>
+      <c r="I13">
+        <v>4004</v>
+      </c>
+      <c r="K13">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3">
+        <f>_xlfn.STDEV.S(C5:C13)</f>
+        <v>164.73092538372319</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f t="shared" ref="D15:L15" si="0">_xlfn.STDEV.S(D5:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>174.02665823883925</v>
+      </c>
+      <c r="F15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>280.05346711734251</v>
+      </c>
+      <c r="H15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>242.59173522607895</v>
+      </c>
+      <c r="J15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>206.66303760254544</v>
+      </c>
+      <c r="L15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <f>MIN(C5:C13)</f>
+        <v>216</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:L16" si="1">MIN(D5:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>753</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2465</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3917</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>4913</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <f>MAX(C5:C13)</f>
+        <v>692</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:L17" si="2">MAX(D5:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>3217</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>4621</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>5532</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <f>ABS(C16-C17)</f>
+        <v>476</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:L18" si="3">ABS(D16-D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>507</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>752</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>619</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52BEE75-0815-45D3-AF06-324863A97F72}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2935,10 +3473,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08E70E-6485-4B4B-B27A-0ADF0208C1DE}">
   <dimension ref="B2:L28"/>
   <sheetViews>
@@ -3434,11 +3973,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D7530-4C62-4FDA-BEE1-FF52241A5947}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -3865,7 +4404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8063B206-5FA7-4448-8EF9-9594290099CF}">
   <dimension ref="C2:M75"/>
   <sheetViews>
